--- a/google-insights.xlsx
+++ b/google-insights.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Morocco-Spain" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,1246 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>origin Morocco</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>destination Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>trip type</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>demand category</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>date range</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Top demand by destination city</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TOP GROWTH BY DESTINATION CITY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>TOP DEMAND BY ORIGIN COUNTRY</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Interest</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Casablanca-Settat</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tangier-Tétouan-Al Hoceima</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Rabat-Salé-Kénitra</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Marbella</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Seville</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Marrakesh-Safi</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Seville</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fuengirola</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Oriental</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fuengirola</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fez-Meknès</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Souss-Massa</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Pamplona</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Béni Mellal-Khenifra</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Torremolinos</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Maspalomas</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ibiza</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cútar</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Costa del Sol</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Lloret de Mar</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pamplona</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Roses</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        Over 75%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Maspalomas</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Torremolinos</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        50% to 75%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Benalmádena</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Costa del Sol</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        50% to 75%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tarifa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Marbella</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        25% to 50%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Baix Empordà</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Benalmádena</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        25% to 50%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cútar</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ibiza</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        10% to 25%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Lloret de Mar</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tarifa</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Baix Empordà</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Salou</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sierra Nevada</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Salou</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Bilbao</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sierra Nevada</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Las Palmas de Gran Canaria</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bilbao</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Roses</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Las Palmas de Gran Canaria</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Algeciras</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Marina Alta</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Marina Alta</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Badajoz</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Badajoz</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Migjorn</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Castillo Caleta de Fuste</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Castillo Caleta de Fuste</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Palma</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Palma</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Blanes</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Blanes</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Calp</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Calp</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Playa Granada</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Playa Granada</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Área Metropolitalitana y Corredor del Henares</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Área Metropolitalitana y Corredor del Henares</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tarragonès</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tarragonès</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A Coruña</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>A Coruña</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Torrejón de Ardoz</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Torrejón de Ardoz</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Santander</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Torrox Costa</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Torrox Costa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Donostia-San Sebastian</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Donostia-San Sebastian</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Corralejo</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Corralejo</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Raiguer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Raiguer</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Cuenca</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Cuenca</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cerdanyola del Vallès</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cerdanyola del Vallès</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Viladecans</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Viladecans</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Albolote</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Albolote</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>S'Illot-Cala Morlanda</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>S'Illot-Cala Morlanda</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -10% to 10%
+                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Migjorn</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                        -50% to -75%
+                      </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>